--- a/server/File Receive.xlsx
+++ b/server/File Receive.xlsx
@@ -4,236 +4,242 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="759"/>
   </bookViews>
   <sheets>
-    <sheet name="Danh sách cán bộ" sheetId="8" r:id="rId1"/>
+    <sheet name="Danh sách cán bộ" sheetId="10" r:id="rId1"/>
     <sheet name="DS phong thi" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Danh sách cán bộ'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phòng thi </t>
+  </si>
+  <si>
+    <t>Địa điểm</t>
+  </si>
+  <si>
+    <t>Khu C</t>
+  </si>
+  <si>
+    <t>Khu F</t>
+  </si>
+  <si>
+    <t>Trường Đại học Phạm Văn Đồng</t>
+  </si>
+  <si>
+    <t>Phan Văn Phúc</t>
+  </si>
+  <si>
+    <t>Trường Đại học sư phạm Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Lê Hồng Phúc</t>
+  </si>
+  <si>
+    <t>Trường Đại học Sư phạm Huế</t>
+  </si>
+  <si>
+    <t>Hà Minh Phúc</t>
+  </si>
+  <si>
+    <t>Trường Đại học Nông Lâm</t>
+  </si>
+  <si>
+    <t>Ngô Văn Phú</t>
+  </si>
+  <si>
+    <t>Trường Đại học Sư phạm kỹ thuạt</t>
+  </si>
+  <si>
+    <t>Lê Thị Nhựt</t>
+  </si>
+  <si>
+    <t>Trường Đại học Ngoại Ngữ</t>
+  </si>
+  <si>
+    <t>Nguyễn Huỳnh Nhật</t>
+  </si>
+  <si>
+    <t>Trường Đại học Sư phạm</t>
+  </si>
+  <si>
+    <t>Lê Nhật</t>
+  </si>
+  <si>
+    <t>Trường Đại học Bách Khoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nguyện</t>
+  </si>
+  <si>
+    <t>Trường Khoa học -Huế</t>
+  </si>
+  <si>
+    <t>Nguyễn Lương Nghĩa</t>
+  </si>
+  <si>
+    <t>Trường Cao Đẳng SP-Huế</t>
+  </si>
+  <si>
+    <t>Lê Đình Ngà</t>
+  </si>
+  <si>
+    <t>Trường Cao Đẳng CNTT-ĐN</t>
+  </si>
+  <si>
+    <t>Văn Nhật Nam</t>
+  </si>
+  <si>
+    <t>Trường Quốc Học -Huế</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Minh</t>
+  </si>
+  <si>
+    <t>Trường Lê Quý Đôn -Đà Nãng</t>
+  </si>
+  <si>
+    <t>Phạm Đức Mạnh</t>
+  </si>
+  <si>
+    <t>Trường THPT Nguyễn Trãi -ĐN</t>
+  </si>
+  <si>
+    <t>Nguyễn Phan Thành Lộc</t>
+  </si>
+  <si>
+    <t>Trần Quang Linh</t>
+  </si>
+  <si>
+    <t>Trần Hoàng Lâm</t>
+  </si>
+  <si>
+    <t>Hoàng Phan Lâm</t>
+  </si>
+  <si>
+    <t>Lê Trung Kiên</t>
+  </si>
+  <si>
+    <t>Trần Văn Huy</t>
+  </si>
+  <si>
+    <t>Lê Đức Huy</t>
+  </si>
+  <si>
+    <t>Trương Văn Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Hoàng</t>
+  </si>
+  <si>
+    <t>Trần Văn Hòa</t>
+  </si>
+  <si>
+    <t>Võ Đăng Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung Hiếu</t>
+  </si>
+  <si>
+    <t>Đặng Văn Hiếu</t>
+  </si>
+  <si>
+    <t>Trần Vĩnh Hảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hải</t>
+  </si>
+  <si>
+    <t>Đặng Hà</t>
+  </si>
+  <si>
+    <t>Đặng Ngọc Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Tùng Dương</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Dũng</t>
+  </si>
+  <si>
+    <t>Lê Minh Dũng</t>
+  </si>
+  <si>
+    <t>Trần Hưng Đức</t>
+  </si>
+  <si>
+    <t>Đặng Trọng Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Cửu Thanh Đề</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Hải Đạt</t>
+  </si>
+  <si>
+    <t>Trần Danh Đán</t>
+  </si>
+  <si>
+    <t>Phan Văn Công</t>
+  </si>
+  <si>
+    <t>Đoàn Minh Văn Chương</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Chung</t>
+  </si>
+  <si>
+    <t>Đoàn Ngọc Chung</t>
+  </si>
+  <si>
+    <t>Đặng Vĩnh Chiến</t>
+  </si>
+  <si>
+    <t>Phan Hữu Bình</t>
+  </si>
+  <si>
+    <t>Lê Văn Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
+    <t>Võ Năm</t>
+  </si>
+  <si>
+    <t>Đơn vị côngtác</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Họ Tên</t>
+  </si>
+  <si>
+    <t>Mã GV</t>
+  </si>
   <si>
     <t>TT</t>
-  </si>
-  <si>
-    <t>Họ Tên</t>
-  </si>
-  <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Võ Năm</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn An</t>
-  </si>
-  <si>
-    <t>Lê Văn Anh</t>
-  </si>
-  <si>
-    <t>Phan Hữu Bình</t>
-  </si>
-  <si>
-    <t>Đặng Vĩnh Chiến</t>
-  </si>
-  <si>
-    <t>Đoàn Ngọc Chung</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Chung</t>
-  </si>
-  <si>
-    <t>Đoàn Minh Văn Chương</t>
-  </si>
-  <si>
-    <t>Phan Văn Công</t>
-  </si>
-  <si>
-    <t>Trần Danh Đán</t>
-  </si>
-  <si>
-    <t>Nguyễn Hải Đạt</t>
-  </si>
-  <si>
-    <t>Nguyễn Tiến Đạt</t>
-  </si>
-  <si>
-    <t>Nguyễn Cửu Thanh Đề</t>
-  </si>
-  <si>
-    <t>Đặng Trọng Đức</t>
-  </si>
-  <si>
-    <t>Trần Hưng Đức</t>
-  </si>
-  <si>
-    <t>Lê Minh Dũng</t>
-  </si>
-  <si>
-    <t>Nguyễn Quốc Dũng</t>
-  </si>
-  <si>
-    <t>Nguyễn Hữu Tùng Dương</t>
-  </si>
-  <si>
-    <t>Đặng Ngọc Giang</t>
-  </si>
-  <si>
-    <t>Đặng Hà</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Hải</t>
-  </si>
-  <si>
-    <t>Trần Vĩnh Hảo</t>
-  </si>
-  <si>
-    <t>Đặng Văn Hiếu</t>
-  </si>
-  <si>
-    <t>Nguyễn Trung Hiếu</t>
-  </si>
-  <si>
-    <t>Võ Đăng Hiếu</t>
-  </si>
-  <si>
-    <t>Trần Văn Hòa</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Hoàng</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Hoàng</t>
-  </si>
-  <si>
-    <t>Nguyễn Mạnh Hùng</t>
-  </si>
-  <si>
-    <t>Trương Văn Hùng</t>
-  </si>
-  <si>
-    <t>Lê Đức Huy</t>
-  </si>
-  <si>
-    <t>Trần Văn Huy</t>
-  </si>
-  <si>
-    <t>Lê Trung Kiên</t>
-  </si>
-  <si>
-    <t>Hoàng Phan Lâm</t>
-  </si>
-  <si>
-    <t>Trần Hoàng Lâm</t>
-  </si>
-  <si>
-    <t>Trần Quang Linh</t>
-  </si>
-  <si>
-    <t>Nguyễn Phan Thành Lộc</t>
-  </si>
-  <si>
-    <t>Phạm Đức Mạnh</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Minh</t>
-  </si>
-  <si>
-    <t>Văn Nhật Nam</t>
-  </si>
-  <si>
-    <t>Lê Đình Ngà</t>
-  </si>
-  <si>
-    <t>Nguyễn Lương Nghĩa</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Nguyện</t>
-  </si>
-  <si>
-    <t>Lê Nhật</t>
-  </si>
-  <si>
-    <t>Nguyễn Huỳnh Nhật</t>
-  </si>
-  <si>
-    <t>Lê Thị Nhựt</t>
-  </si>
-  <si>
-    <t>Ngô Văn Phú</t>
-  </si>
-  <si>
-    <t>Hà Minh Phúc</t>
-  </si>
-  <si>
-    <t>Lê Hồng Phúc</t>
-  </si>
-  <si>
-    <t>Phan Văn Phúc</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phòng thi </t>
-  </si>
-  <si>
-    <t>Trường Đại học Bách Khoa</t>
-  </si>
-  <si>
-    <t>Trường Đại học Sư phạm</t>
-  </si>
-  <si>
-    <t>Trường Đại học Sư phạm kỹ thuạt</t>
-  </si>
-  <si>
-    <t>Trường Đại học Nông Lâm</t>
-  </si>
-  <si>
-    <t>Trường Đại học Sư phạm Huế</t>
-  </si>
-  <si>
-    <t>Trường Đại học sư phạm Đà Nẵng</t>
-  </si>
-  <si>
-    <t>Trường Đại học Ngoại Ngữ</t>
-  </si>
-  <si>
-    <t>Trường Đại học Phạm Văn Đồng</t>
-  </si>
-  <si>
-    <t>Trường THPT Nguyễn Trãi -ĐN</t>
-  </si>
-  <si>
-    <t>Trường Lê Quý Đôn -Đà Nãng</t>
-  </si>
-  <si>
-    <t>Trường Quốc Học -Huế</t>
-  </si>
-  <si>
-    <t>Trường Cao Đẳng CNTT-ĐN</t>
-  </si>
-  <si>
-    <t>Đơn vị côngtác</t>
-  </si>
-  <si>
-    <t>Trường Cao Đẳng SP-Huế</t>
-  </si>
-  <si>
-    <t>Trường Khoa học -Huế</t>
-  </si>
-  <si>
-    <t>Mã GV</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +271,12 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -316,27 +328,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,14 +344,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,884 +674,884 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E11" sqref="E10:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="54.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="B2" s="8">
         <v>105150103</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
+      <c r="C2" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D2" s="9">
         <v>35591</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>55</v>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>101170001</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
+      <c r="C3" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D3" s="9">
         <v>36337</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <v>101170002</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C4" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D4" s="9">
         <v>36181</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>61</v>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <v>101170003</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
+      <c r="C5" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D5" s="9">
         <v>35958</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>57</v>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <v>101170004</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
+      <c r="C6" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="9">
         <v>36413</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>58</v>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="8">
         <v>101170005</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
+      <c r="C7" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D7" s="9">
         <v>36254</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>59</v>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="8">
         <v>101170006</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
+      <c r="C8" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D8" s="9">
         <v>35841</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="8">
         <v>101170007</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
+      <c r="C9" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D9" s="9">
         <v>35538</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>62</v>
+      <c r="E9" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="8">
         <v>101170008</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
+      <c r="C10" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="D10" s="9">
         <v>36431</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>63</v>
+      <c r="E10" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="8">
         <v>101170009</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
+      <c r="C11" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="9">
         <v>36285</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>64</v>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="8">
         <v>101170010</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
+      <c r="C12" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="D12" s="9">
         <v>36321</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>65</v>
+      <c r="E12" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="8">
         <v>101170011</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
+      <c r="C13" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D13" s="9">
         <v>36468</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>66</v>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="8">
         <v>101170012</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
+      <c r="C14" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="9">
         <v>36246</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>68</v>
+      <c r="E14" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="8">
         <v>101170013</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
+      <c r="C15" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="9">
         <v>36288</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>69</v>
+      <c r="E15" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="8">
         <v>101170014</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
+      <c r="C16" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="D16" s="9">
         <v>36505</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>55</v>
+      <c r="E16" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="8">
         <v>101170015</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
+      <c r="C17" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="9">
         <v>36225</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
+      <c r="E17" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="8">
         <v>101170016</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
+      <c r="C18" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D18" s="9">
         <v>36435</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>61</v>
+      <c r="E18" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="8">
         <v>101170017</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D19" s="9">
         <v>36398</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>57</v>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="8">
         <v>101170018</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>21</v>
+      <c r="C20" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D20" s="9">
         <v>36216</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>58</v>
+      <c r="E20" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="8">
         <v>101170019</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>22</v>
+      <c r="C21" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D21" s="9">
         <v>35945</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>59</v>
+      <c r="E21" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="8">
         <v>101170020</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
+      <c r="C22" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="9">
         <v>36442</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>60</v>
+      <c r="E22" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="8">
         <v>101170021</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>24</v>
+      <c r="C23" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="9">
         <v>36294</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>62</v>
+      <c r="E23" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="8">
         <v>101170022</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>25</v>
+      <c r="C24" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D24" s="9">
         <v>36474</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>63</v>
+      <c r="E24" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="8">
         <v>101170023</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
+      <c r="C25" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D25" s="9">
         <v>36329</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>64</v>
+      <c r="E25" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="8">
         <v>101170024</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
+      <c r="C26" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D26" s="9">
         <v>36425</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>65</v>
+      <c r="E26" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="8">
         <v>101170025</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>28</v>
+      <c r="C27" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D27" s="9">
         <v>36068</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>66</v>
+      <c r="E27" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="8">
         <v>101170026</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>29</v>
+      <c r="C28" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D28" s="9">
         <v>36281</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>68</v>
+      <c r="E28" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="8">
         <v>101170027</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>30</v>
+      <c r="C29" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D29" s="9">
         <v>36223</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>69</v>
+      <c r="E29" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="8">
         <v>101170028</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>31</v>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="9">
         <v>35609</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>55</v>
+      <c r="E30" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="8">
         <v>101170029</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>32</v>
+      <c r="C31" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D31" s="9">
         <v>36367</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>56</v>
+      <c r="E31" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="8">
         <v>101170030</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>33</v>
+      <c r="C32" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D32" s="9">
         <v>36409</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>61</v>
+      <c r="E32" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="8">
         <v>101170031</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>34</v>
+      <c r="C33" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D33" s="9">
         <v>36004</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>57</v>
+      <c r="E33" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="8">
         <v>101170032</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>35</v>
+      <c r="C34" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D34" s="9">
         <v>35872</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>58</v>
+      <c r="E34" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="8">
         <v>101170033</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>36</v>
+      <c r="C35" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D35" s="9">
         <v>36266</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>59</v>
+      <c r="E35" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="8">
         <v>101170034</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>37</v>
+      <c r="C36" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D36" s="9">
         <v>36390</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>60</v>
+      <c r="E36" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="8">
         <v>101170035</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>38</v>
+      <c r="C37" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D37" s="9">
         <v>35833</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>62</v>
+      <c r="E37" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="8">
         <v>101170036</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>39</v>
+      <c r="C38" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="D38" s="9">
         <v>36207</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>63</v>
+      <c r="E38" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="8">
         <v>101170037</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>40</v>
+      <c r="C39" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D39" s="9">
         <v>36233</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>64</v>
+      <c r="E39" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="8">
         <v>101170038</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>41</v>
+      <c r="C40" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D40" s="9">
         <v>36442</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>65</v>
+      <c r="E40" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="8">
         <v>101170039</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>42</v>
+      <c r="C41" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D41" s="9">
         <v>36405</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>66</v>
+      <c r="E41" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="8">
         <v>101170040</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>43</v>
+      <c r="C42" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D42" s="9">
         <v>36312</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>68</v>
+      <c r="E42" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="8">
         <v>101170041</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>44</v>
+      <c r="C43" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D43" s="9">
         <v>36305</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>69</v>
+      <c r="E43" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="8">
         <v>101170042</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>45</v>
+      <c r="C44" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D44" s="9">
         <v>36510</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>55</v>
+      <c r="E44" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="8">
         <v>101170043</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>46</v>
+      <c r="C45" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D45" s="9">
         <v>36377</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>56</v>
+      <c r="E45" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="8">
         <v>101170044</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>47</v>
+      <c r="C46" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D46" s="9">
         <v>36211</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>61</v>
+      <c r="E46" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="8">
         <v>101170045</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>48</v>
+      <c r="C47" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D47" s="9">
         <v>36306</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>57</v>
+      <c r="E47" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="8">
         <v>101170046</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>49</v>
+      <c r="C48" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D48" s="9">
         <v>35431</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>58</v>
+      <c r="E48" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="8">
         <v>101170047</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>50</v>
+      <c r="C49" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D49" s="9">
         <v>36376</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>59</v>
+      <c r="E49" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="8">
         <v>101170048</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>51</v>
+      <c r="C50" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="D50" s="9">
         <v>36294</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>60</v>
+      <c r="E50" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="8">
         <v>101170049</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>52</v>
+      <c r="C51" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D51" s="9">
         <v>36314</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>62</v>
+      <c r="E51" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1547,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,208 +1575,250 @@
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>128</v>
       </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="3">
         <v>129</v>
       </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="3">
         <v>130</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="3">
         <v>131</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="3">
         <v>132</v>
       </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="3">
         <v>133</v>
       </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="3">
         <v>134</v>
       </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="3">
         <v>135</v>
       </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="3">
         <v>136</v>
       </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="3">
         <v>137</v>
       </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="3">
         <v>138</v>
       </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="3">
         <v>139</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="3">
         <v>140</v>
       </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="3">
         <v>141</v>
       </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="3">
         <v>142</v>
       </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="3">
         <v>143</v>
       </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="3">
         <v>144</v>
       </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="3">
         <v>145</v>
       </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="3">
         <v>146</v>
       </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="3">
         <v>147</v>
       </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="3">
         <v>148</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>